--- a/static/rhythm_games/Megamix Mods.xlsx
+++ b/static/rhythm_games/Megamix Mods.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="208">
   <si>
     <t>Minigame Name</t>
   </si>
@@ -67,12 +67,15 @@
     <t>Rap Men</t>
   </si>
   <si>
+    <t>rap_men_megamix_mod.png</t>
+  </si>
+  <si>
+    <t>Built-To-Scale 1 (ds)</t>
+  </si>
+  <si>
     <t>no.png</t>
   </si>
   <si>
-    <t>Built-To-Scale 1 (ds)</t>
-  </si>
-  <si>
     <t>Rockers 1</t>
   </si>
   <si>
@@ -109,15 +112,24 @@
     <t>Air Rally (Frozen Hillside)</t>
   </si>
   <si>
+    <t>frozen_hillside_megamimod.png</t>
+  </si>
+  <si>
     <t>Blue Bear (7am ACNL)</t>
   </si>
   <si>
+    <t>7am_blue_bear_megamix_mod.png</t>
+  </si>
+  <si>
     <t>Digital Nova</t>
   </si>
   <si>
     <t>Wii Sports Golf</t>
   </si>
   <si>
+    <t>wii_sports_golf_megamix_mod.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">The Clappy Trio (Littleroot town) </t>
   </si>
   <si>
@@ -157,6 +169,9 @@
     <t>Screwbot Pokemon</t>
   </si>
   <si>
+    <t>pokemon_screwbot_megamix_mod.png</t>
+  </si>
+  <si>
     <t>Sneaky Spirits 4</t>
   </si>
   <si>
@@ -166,6 +181,9 @@
     <t>Very Hard</t>
   </si>
   <si>
+    <t>looting_the_louvre_megamix_mod.png</t>
+  </si>
+  <si>
     <t>Rhythm Tweezers 4</t>
   </si>
   <si>
@@ -175,6 +193,9 @@
     <t>Shoot 'Em Up Mania</t>
   </si>
   <si>
+    <t>shoot_em_up_mania_megamix_mod.png</t>
+  </si>
+  <si>
     <t>Fillbots Frenzy</t>
   </si>
   <si>
@@ -187,6 +208,9 @@
     <t>Ninja Bodyguard 3</t>
   </si>
   <si>
+    <t>ninja_bodyguard_3_megamix_mod.png</t>
+  </si>
+  <si>
     <t>Ninja Reincarnate</t>
   </si>
   <si>
@@ -217,6 +241,9 @@
     <t>Bon Dance</t>
   </si>
   <si>
+    <t>bon_dance_megamix_mod.png</t>
+  </si>
+  <si>
     <t>Bouncy Road 2</t>
   </si>
   <si>
@@ -232,6 +259,9 @@
     <t>Marching Orders 2</t>
   </si>
   <si>
+    <t>marching_orders_2_megamix_mod.png</t>
+  </si>
+  <si>
     <t>Marching Orders 1</t>
   </si>
   <si>
@@ -250,6 +280,9 @@
     <t>Spaceball 2</t>
   </si>
   <si>
+    <t>spaceball_2_megamix_mod.png</t>
+  </si>
+  <si>
     <t>Spaceball 1</t>
   </si>
   <si>
@@ -274,12 +307,18 @@
     <t>Munchy Monk Circus</t>
   </si>
   <si>
+    <t>munchy_monk_circus_megamix_mod.png</t>
+  </si>
+  <si>
     <t>Munchy Monk</t>
   </si>
   <si>
     <t>The Dazzles 2</t>
   </si>
   <si>
+    <t>the_dazzles_2_megamix_mod.png</t>
+  </si>
+  <si>
     <t>The Dazzles 1</t>
   </si>
   <si>
@@ -292,18 +331,27 @@
     <t>Cheer Readers 2</t>
   </si>
   <si>
+    <t>cheer_readers_2_fever.png</t>
+  </si>
+  <si>
     <t>Cheer Readers 1</t>
   </si>
   <si>
     <t>Double Date 2</t>
   </si>
   <si>
+    <t>double_date_2_fever.png</t>
+  </si>
+  <si>
     <t>Double Date 1</t>
   </si>
   <si>
     <t>Karate Man Combos 2</t>
   </si>
   <si>
+    <t>karate_man_combos_2_megamix_mod.png</t>
+  </si>
+  <si>
     <t>Karate Man Combos! 1</t>
   </si>
   <si>
@@ -334,12 +382,18 @@
     <t>Screwbot Factory 2</t>
   </si>
   <si>
+    <t>screwbot_factory_2_megamix_mod.png</t>
+  </si>
+  <si>
     <t>Screwbot Factory 1</t>
   </si>
   <si>
     <t>Shoot-'em-up 3</t>
   </si>
   <si>
+    <t>shoot_em_up_3_megamix.png</t>
+  </si>
+  <si>
     <t>Shoot-'em-up 2</t>
   </si>
   <si>
@@ -352,6 +406,9 @@
     <t>Lockstep 2</t>
   </si>
   <si>
+    <t>lockstep_2_megamix_mod.png</t>
+  </si>
+  <si>
     <t>Lockstep 1</t>
   </si>
   <si>
@@ -361,6 +418,9 @@
     <t xml:space="preserve">Built-to-Scale 1 (wii) </t>
   </si>
   <si>
+    <t>ninja_reincarnate_megamix_mod.png</t>
+  </si>
+  <si>
     <t>Ninja Bodyguard</t>
   </si>
   <si>
@@ -373,15 +433,24 @@
     <t>Yobanashi Deceive</t>
   </si>
   <si>
+    <t>yobanashi_deceive_megamix_mod.png</t>
+  </si>
+  <si>
     <t>Driftveil City</t>
   </si>
   <si>
+    <t>driftveil_city_megamix_mod.png</t>
+  </si>
+  <si>
     <t>Work Zone Level</t>
   </si>
   <si>
     <t>City of Color</t>
   </si>
   <si>
+    <t>city_of_color_remix_megamix_mod.png</t>
+  </si>
+  <si>
     <t>(GBA) Remix 1</t>
   </si>
   <si>
@@ -403,12 +472,21 @@
     <t>(DS) Remix 7 Remixed</t>
   </si>
   <si>
+    <t>remixed_7_megamix_mod.png</t>
+  </si>
+  <si>
     <t>(DS) Remix 7</t>
   </si>
   <si>
+    <t>remix_7_gold.png</t>
+  </si>
+  <si>
     <t>(Wii) Remix 1</t>
   </si>
   <si>
+    <t>remix_1_fever.png</t>
+  </si>
+  <si>
     <t>Hole in One 1</t>
   </si>
   <si>
@@ -418,6 +496,9 @@
     <t>(Wii) Remix 2</t>
   </si>
   <si>
+    <t>remix_2_fever.png</t>
+  </si>
+  <si>
     <t>Fork Lifter</t>
   </si>
   <si>
@@ -430,6 +511,9 @@
     <t>(Wii) Remix 3</t>
   </si>
   <si>
+    <t>remix_3_fever.png</t>
+  </si>
+  <si>
     <t>Working Dough 1</t>
   </si>
   <si>
@@ -442,6 +526,9 @@
     <t>(Wii) Remix 4</t>
   </si>
   <si>
+    <t>remix_4_fever.png</t>
+  </si>
+  <si>
     <t>Ringside</t>
   </si>
   <si>
@@ -451,30 +538,39 @@
     <t>(Wii) Remix 5</t>
   </si>
   <si>
+    <t>remix_5_fever.png</t>
+  </si>
+  <si>
     <t>(Wii) Remix 6</t>
   </si>
   <si>
+    <t>remix_6_fever.png</t>
+  </si>
+  <si>
     <t>(Wii) Remix 7</t>
   </si>
   <si>
-    <t>Machine Remix</t>
-  </si>
-  <si>
-    <t>Left Hand Remix</t>
-  </si>
-  <si>
-    <t>Right Hand Remix</t>
+    <t>remix_7_fever.png</t>
   </si>
   <si>
     <t>Butter Building</t>
   </si>
   <si>
+    <t>butter_building_remix_megamix_mod.png</t>
+  </si>
+  <si>
     <t>Deep Sea Girl</t>
   </si>
   <si>
+    <t>deep_sea_girl_megamix_mod.png</t>
+  </si>
+  <si>
     <t>Flying Battery Zone</t>
   </si>
   <si>
+    <t>flying_battery_zone_megamix_mod.png</t>
+  </si>
+  <si>
     <t>Ultra Space</t>
   </si>
   <si>
@@ -490,18 +586,39 @@
     <t>(Wii) Remix 9</t>
   </si>
   <si>
+    <t>remix_9_fever.png</t>
+  </si>
+  <si>
+    <t>Viva La Vida</t>
+  </si>
+  <si>
+    <t>Rh Studio</t>
+  </si>
+  <si>
+    <t>viva_la_vida_rh_studio.png</t>
+  </si>
+  <si>
     <t>(Wii) Remix 10</t>
   </si>
   <si>
+    <t>remix_10_fever.png</t>
+  </si>
+  <si>
     <t>Choco Mountain</t>
   </si>
   <si>
+    <t>choco_mountain_megamix_mod.png</t>
+  </si>
+  <si>
     <t>True Final Remix</t>
   </si>
   <si>
     <t>(DS) Remix 8</t>
   </si>
   <si>
+    <t>remix_8_fever.png</t>
+  </si>
+  <si>
     <t>(Wii) Remix 8</t>
   </si>
   <si>
@@ -511,7 +628,13 @@
     <t>Master</t>
   </si>
   <si>
+    <t>on_the_rocks_megamix_mod.png</t>
+  </si>
+  <si>
     <t>Bomb Rush Blush</t>
+  </si>
+  <si>
+    <t>bomb_rush_blush_megamix_mod.png</t>
   </si>
 </sst>
 </file>
@@ -618,7 +741,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -645,6 +768,9 @@
     </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -902,7 +1028,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="25.25"/>
-    <col customWidth="1" min="7" max="7" width="29.13"/>
+    <col customWidth="1" min="7" max="7" width="33.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1031,8 +1157,8 @@
       <c r="F5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>18</v>
+      <c r="G5" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>13</v>
@@ -1040,7 +1166,7 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>10</v>
@@ -1058,7 +1184,7 @@
         <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>13</v>
@@ -1066,7 +1192,7 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1084,7 +1210,7 @@
         <v>13</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>13</v>
@@ -1092,7 +1218,7 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1110,7 +1236,7 @@
         <v>13</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>13</v>
@@ -1118,7 +1244,7 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1136,7 +1262,7 @@
         <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>13</v>
@@ -1144,7 +1270,7 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1162,7 +1288,7 @@
         <v>13</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>13</v>
@@ -1170,7 +1296,7 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1187,8 +1313,8 @@
       <c r="F12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>18</v>
+      <c r="G12" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>13</v>
@@ -1196,7 +1322,7 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1214,7 +1340,7 @@
         <v>13</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>13</v>
@@ -1222,7 +1348,7 @@
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1240,7 +1366,7 @@
         <v>13</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>13</v>
@@ -1248,7 +1374,7 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>10</v>
@@ -1265,8 +1391,8 @@
       <c r="F15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>18</v>
+      <c r="G15" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>13</v>
@@ -1274,7 +1400,7 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1292,7 +1418,7 @@
         <v>13</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>13</v>
@@ -1300,7 +1426,7 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>10</v>
@@ -1317,8 +1443,8 @@
       <c r="F17" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>18</v>
+      <c r="G17" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>13</v>
@@ -1326,7 +1452,7 @@
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -1343,8 +1469,8 @@
       <c r="F18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>18</v>
+      <c r="G18" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>13</v>
@@ -1352,7 +1478,7 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1369,8 +1495,8 @@
       <c r="F19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="9" t="s">
-        <v>18</v>
+      <c r="G19" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>13</v>
@@ -1378,7 +1504,7 @@
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1395,8 +1521,8 @@
       <c r="F20" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>18</v>
+      <c r="G20" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>13</v>
@@ -1405,7 +1531,7 @@
     <row r="21">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="10"/>
+      <c r="C21" s="11"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -1413,11 +1539,11 @@
       <c r="H21" s="7"/>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>40</v>
+      <c r="A22" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>11</v>
@@ -1432,18 +1558,18 @@
         <v>13</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>40</v>
+      <c r="A23" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>11</v>
@@ -1457,19 +1583,19 @@
       <c r="F23" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="9" t="s">
-        <v>18</v>
+      <c r="G23" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>40</v>
+      <c r="A24" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>11</v>
@@ -1483,19 +1609,19 @@
       <c r="F24" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="9" t="s">
-        <v>18</v>
+      <c r="G24" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>40</v>
+      <c r="A25" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>11</v>
@@ -1509,19 +1635,19 @@
       <c r="F25" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="9" t="s">
-        <v>18</v>
+      <c r="G25" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>40</v>
+      <c r="A26" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>11</v>
@@ -1535,19 +1661,19 @@
       <c r="F26" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="9" t="s">
-        <v>18</v>
+      <c r="G26" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>40</v>
+      <c r="A27" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>11</v>
@@ -1561,19 +1687,19 @@
       <c r="F27" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="9" t="s">
-        <v>18</v>
+      <c r="G27" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>40</v>
+      <c r="A28" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>11</v>
@@ -1588,18 +1714,18 @@
         <v>13</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>40</v>
+      <c r="A29" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>11</v>
@@ -1613,19 +1739,19 @@
       <c r="F29" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="9" t="s">
-        <v>18</v>
+      <c r="G29" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>50</v>
+      <c r="A31" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>11</v>
@@ -1640,7 +1766,7 @@
         <v>13</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>13</v>
@@ -1648,11 +1774,11 @@
       <c r="I31" s="7"/>
     </row>
     <row r="32">
-      <c r="A32" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>50</v>
+      <c r="A32" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>55</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>11</v>
@@ -1666,8 +1792,8 @@
       <c r="F32" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="9" t="s">
-        <v>18</v>
+      <c r="G32" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>12</v>
@@ -1675,11 +1801,11 @@
       <c r="I32" s="7"/>
     </row>
     <row r="33">
-      <c r="A33" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>50</v>
+      <c r="A33" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>55</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>11</v>
@@ -1693,8 +1819,8 @@
       <c r="F33" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="9" t="s">
-        <v>18</v>
+      <c r="G33" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>12</v>
@@ -1702,11 +1828,11 @@
       <c r="I33" s="7"/>
     </row>
     <row r="34">
-      <c r="A34" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>50</v>
+      <c r="A34" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>11</v>
@@ -1721,7 +1847,7 @@
         <v>13</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>12</v>
@@ -1729,11 +1855,11 @@
       <c r="I34" s="7"/>
     </row>
     <row r="35">
-      <c r="A35" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>50</v>
+      <c r="A35" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>55</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>11</v>
@@ -1747,23 +1873,23 @@
       <c r="F35" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G35" s="9" t="s">
-        <v>18</v>
+      <c r="G35" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I35" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="18" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>50</v>
-      </c>
       <c r="C36" s="6" t="s">
         <v>11</v>
       </c>
@@ -1776,8 +1902,8 @@
       <c r="F36" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="9" t="s">
-        <v>18</v>
+      <c r="G36" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>12</v>
@@ -1785,11 +1911,11 @@
       <c r="I36" s="7"/>
     </row>
     <row r="37">
-      <c r="A37" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>50</v>
+      <c r="A37" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>55</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>11</v>
@@ -1804,21 +1930,21 @@
         <v>13</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>60</v>
+      <c r="A39" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>68</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>11</v>
@@ -1833,18 +1959,18 @@
         <v>13</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B41" s="19" t="s">
-        <v>63</v>
+      <c r="A41" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>71</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>11</v>
@@ -1859,18 +1985,18 @@
         <v>13</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>63</v>
+      <c r="A42" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>71</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>11</v>
@@ -1885,18 +2011,18 @@
         <v>13</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H42" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>40</v>
+      <c r="A44" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>11</v>
@@ -1911,18 +2037,18 @@
         <v>13</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="H44" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>40</v>
+      <c r="A45" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>11</v>
@@ -1937,7 +2063,7 @@
         <v>13</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>12</v>
@@ -1947,11 +2073,11 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>40</v>
+      <c r="A46" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>11</v>
@@ -1965,22 +2091,22 @@
       <c r="F46" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G46" s="9" t="s">
-        <v>18</v>
+      <c r="G46" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>40</v>
+      <c r="A47" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>11</v>
@@ -1994,22 +2120,22 @@
       <c r="F47" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G47" s="9" t="s">
-        <v>18</v>
+      <c r="G47" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>40</v>
+      <c r="A48" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>11</v>
@@ -2024,21 +2150,21 @@
         <v>13</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="H48" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>40</v>
+      <c r="A49" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>11</v>
@@ -2052,22 +2178,22 @@
       <c r="F49" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G49" s="9" t="s">
-        <v>18</v>
+      <c r="G49" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>40</v>
+      <c r="A50" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>11</v>
@@ -2081,22 +2207,22 @@
       <c r="F50" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G50" s="9" t="s">
-        <v>18</v>
+      <c r="G50" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>40</v>
+      <c r="A51" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>11</v>
@@ -2111,21 +2237,21 @@
         <v>13</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="H51" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>40</v>
+      <c r="A52" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>11</v>
@@ -2139,8 +2265,8 @@
       <c r="F52" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G52" s="9" t="s">
-        <v>18</v>
+      <c r="G52" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="H52" s="7" t="s">
         <v>12</v>
@@ -2150,531 +2276,531 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B72" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I53" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I54" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B55" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I55" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I56" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B57" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I57" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B58" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B59" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I59" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B60" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I60" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I61" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B62" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H62" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I62" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="B63" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H63" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I63" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B64" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I64" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B65" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I65" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="B66" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I66" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B67" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I67" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="B68" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G68" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I68" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="B69" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H69" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I69" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="B70" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H70" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I70" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B72" s="16" t="s">
-        <v>50</v>
-      </c>
       <c r="C72" s="6" t="s">
         <v>11</v>
       </c>
@@ -2688,18 +2814,18 @@
         <v>13</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="H72" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="5" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>10</v>
@@ -2716,8 +2842,8 @@
       <c r="F74" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G74" s="9" t="s">
-        <v>18</v>
+      <c r="G74" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="H74" s="7" t="s">
         <v>12</v>
@@ -2725,7 +2851,7 @@
     </row>
     <row r="75">
       <c r="A75" s="5" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>10</v>
@@ -2742,8 +2868,8 @@
       <c r="F75" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G75" s="9" t="s">
-        <v>18</v>
+      <c r="G75" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="H75" s="7" t="s">
         <v>12</v>
@@ -2751,7 +2877,7 @@
     </row>
     <row r="76">
       <c r="A76" s="5" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>10</v>
@@ -2769,7 +2895,7 @@
         <v>13</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="H76" s="7" t="s">
         <v>12</v>
@@ -2777,7 +2903,7 @@
     </row>
     <row r="77">
       <c r="A77" s="5" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>10</v>
@@ -2795,7 +2921,7 @@
         <v>13</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="H77" s="7" t="s">
         <v>12</v>
@@ -2803,7 +2929,7 @@
     </row>
     <row r="78">
       <c r="A78" s="5" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>10</v>
@@ -2820,8 +2946,8 @@
       <c r="F78" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G78" s="9" t="s">
-        <v>18</v>
+      <c r="G78" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="H78" s="7" t="s">
         <v>12</v>
@@ -2829,7 +2955,7 @@
     </row>
     <row r="79">
       <c r="A79" s="5" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>10</v>
@@ -2847,7 +2973,7 @@
         <v>13</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="H79" s="7" t="s">
         <v>12</v>
@@ -2855,7 +2981,7 @@
     </row>
     <row r="80">
       <c r="A80" s="5" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>10</v>
@@ -2872,31 +2998,31 @@
       <c r="F80" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G80" s="9" t="s">
-        <v>18</v>
+      <c r="G80" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="H80" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="M80" s="7" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="5" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>10</v>
@@ -2913,8 +3039,8 @@
       <c r="F81" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G81" s="9" t="s">
-        <v>18</v>
+      <c r="G81" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="H81" s="7" t="s">
         <v>12</v>
@@ -2923,18 +3049,18 @@
         <v>19</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K81" s="7" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="5" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>10</v>
@@ -2952,7 +3078,7 @@
         <v>13</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="H82" s="7" t="s">
         <v>12</v>
@@ -2960,7 +3086,7 @@
     </row>
     <row r="83">
       <c r="A83" s="5" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>10</v>
@@ -2978,7 +3104,7 @@
         <v>13</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="H83" s="7" t="s">
         <v>12</v>
@@ -2986,7 +3112,7 @@
     </row>
     <row r="84">
       <c r="A84" s="5" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>10</v>
@@ -3004,27 +3130,27 @@
         <v>13</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="H84" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="K84" s="7" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="5" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>10</v>
@@ -3042,27 +3168,27 @@
         <v>13</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="H85" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K85" s="7" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="5" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>10</v>
@@ -3080,27 +3206,27 @@
         <v>13</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="H86" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="K86" s="7" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="L86" s="7" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="5" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>10</v>
@@ -3118,27 +3244,27 @@
         <v>13</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>18</v>
+        <v>171</v>
       </c>
       <c r="H87" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="K87" s="7" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="L87" s="7" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="5" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>10</v>
@@ -3156,7 +3282,7 @@
         <v>13</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>18</v>
+        <v>175</v>
       </c>
       <c r="H88" s="7" t="s">
         <v>12</v>
@@ -3164,7 +3290,7 @@
     </row>
     <row r="89">
       <c r="A89" s="5" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>10</v>
@@ -3182,7 +3308,7 @@
         <v>13</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>18</v>
+        <v>177</v>
       </c>
       <c r="H89" s="7" t="s">
         <v>12</v>
@@ -3190,7 +3316,7 @@
     </row>
     <row r="90">
       <c r="A90" s="5" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>10</v>
@@ -3208,18 +3334,18 @@
         <v>13</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>18</v>
+        <v>179</v>
       </c>
       <c r="H90" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="B91" s="13" t="s">
-        <v>40</v>
+      <c r="A91" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="B91" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>11</v>
@@ -3234,18 +3360,18 @@
         <v>13</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>18</v>
+        <v>181</v>
       </c>
       <c r="H91" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="B92" s="13" t="s">
-        <v>40</v>
+      <c r="A92" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>11</v>
@@ -3260,18 +3386,18 @@
         <v>13</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>18</v>
+        <v>183</v>
       </c>
       <c r="H92" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="B93" s="13" t="s">
-        <v>40</v>
+      <c r="A93" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>11</v>
@@ -3286,18 +3412,18 @@
         <v>13</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>18</v>
+        <v>185</v>
       </c>
       <c r="H93" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="B94" s="13" t="s">
-        <v>40</v>
+      <c r="A94" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>11</v>
@@ -3311,19 +3437,19 @@
       <c r="F94" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G94" s="9" t="s">
-        <v>18</v>
+      <c r="G94" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="H94" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="B95" s="13" t="s">
-        <v>40</v>
+      <c r="A95" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>11</v>
@@ -3337,19 +3463,19 @@
       <c r="F95" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G95" s="9" t="s">
-        <v>18</v>
+      <c r="G95" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="H95" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="B96" s="13" t="s">
-        <v>40</v>
+      <c r="A96" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>11</v>
@@ -3363,19 +3489,19 @@
       <c r="F96" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G96" s="9" t="s">
-        <v>18</v>
+      <c r="G96" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="H96" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="B97" s="13" t="s">
-        <v>40</v>
+      <c r="A97" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>11</v>
@@ -3389,19 +3515,19 @@
       <c r="F97" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G97" s="9" t="s">
-        <v>18</v>
+      <c r="G97" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="H97" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="B98" s="13" t="s">
-        <v>40</v>
+      <c r="A98" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>11</v>
@@ -3416,21 +3542,21 @@
         <v>13</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>18</v>
+        <v>191</v>
       </c>
       <c r="H98" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="B99" s="13" t="s">
-        <v>40</v>
+      <c r="A99" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="B99" s="18" t="s">
+        <v>55</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>12</v>
@@ -3442,18 +3568,18 @@
         <v>13</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="H99" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="B100" s="13" t="s">
-        <v>40</v>
+      <c r="A100" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="B100" s="18" t="s">
+        <v>55</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>11</v>
@@ -3468,18 +3594,18 @@
         <v>13</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="H100" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="B101" s="13" t="s">
-        <v>40</v>
+      <c r="A101" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="B101" s="18" t="s">
+        <v>55</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>11</v>
@@ -3494,18 +3620,18 @@
         <v>13</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>18</v>
+        <v>198</v>
       </c>
       <c r="H101" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="B102" s="17" t="s">
-        <v>50</v>
+      <c r="A102" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="B102" s="18" t="s">
+        <v>55</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>11</v>
@@ -3519,19 +3645,19 @@
       <c r="F102" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G102" s="9" t="s">
-        <v>18</v>
+      <c r="G102" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="H102" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="B103" s="17" t="s">
-        <v>50</v>
+      <c r="A103" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="B103" s="18" t="s">
+        <v>55</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>11</v>
@@ -3546,18 +3672,18 @@
         <v>13</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>18</v>
+        <v>201</v>
       </c>
       <c r="H103" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="B104" s="17" t="s">
-        <v>50</v>
+      <c r="A104" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="B104" s="18" t="s">
+        <v>55</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>11</v>
@@ -3571,19 +3697,19 @@
       <c r="F104" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G104" s="9" t="s">
-        <v>18</v>
+      <c r="G104" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="H104" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B105" s="17" t="s">
-        <v>50</v>
+      <c r="A105" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B105" s="22" t="s">
+        <v>204</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>11</v>
@@ -3598,18 +3724,18 @@
         <v>13</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>18</v>
+        <v>205</v>
       </c>
       <c r="H105" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="B106" s="17" t="s">
-        <v>50</v>
+      <c r="A106" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="B106" s="22" t="s">
+        <v>204</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>11</v>
@@ -3624,61 +3750,9 @@
         <v>13</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>18</v>
+        <v>207</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="B107" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D107" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E107" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F107" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G107" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H107" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="B108" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D108" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E108" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F108" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G108" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H108" s="7" t="s">
         <v>12</v>
       </c>
     </row>
